--- a/Open Data/donnees_departements_Logement.xlsx
+++ b/Open Data/donnees_departements_Logement.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DEP" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="REG" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="DEP" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="REG" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
-  <si>
-    <t xml:space="preserve">Logements sociaux au 1ᵉʳ janvier 2023 : comparaisons départementales</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="230">
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Departement</t>
   </si>
   <si>
     <t xml:space="preserve">Nombre de logements sociaux pour 10 000 habitants</t>
@@ -648,6 +659,48 @@
     <t xml:space="preserve">Mayotte</t>
   </si>
   <si>
+    <t xml:space="preserve">Logements sociaux au 1ᵉʳ janvier 2023 : comparaisons régionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bretagne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Est</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hauts-de-France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Île-de-France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normandie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occitanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pays de la Loire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
     <t xml:space="preserve">F</t>
   </si>
   <si>
@@ -658,81 +711,57 @@
   </si>
   <si>
     <t xml:space="preserve">Source : ministère de la Transition écologique, Service des données et études statistiques (SDES), Répertoire des logements locatifs des bailleurs sociaux ; Insee, Estimations de population.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logements sociaux au 1ᵉʳ janvier 2023 : comparaisons régionales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bretagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grand Est</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hauts-de-France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Île-de-France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normandie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occitanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pays de la Loire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Provence-Alpes-Côte d'Azur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00"/>
-    <numFmt numFmtId="170" formatCode="#,##0"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <b/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <b/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -744,7 +773,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -752,359 +781,135 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A78" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F108" activeCellId="0" sqref="F108"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="23.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="22.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="22.7"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>727</v>
@@ -1112,19 +917,19 @@
       <c r="D5" s="4" t="n">
         <v>16.8</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="4" t="n">
         <v>83.2</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="5" t="n">
         <v>6.23</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>8</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>787</v>
@@ -1132,19 +937,19 @@
       <c r="D6" s="4" t="n">
         <v>24.3</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="4" t="n">
         <v>75.7</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="5" t="n">
         <v>5.64</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>601</v>
@@ -1152,19 +957,19 @@
       <c r="D7" s="4" t="n">
         <v>26.6</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="4" t="n">
         <v>73.4</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="5" t="n">
         <v>5.42</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>469</v>
@@ -1172,19 +977,19 @@
       <c r="D8" s="4" t="n">
         <v>27.3</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="4" t="n">
         <v>72.7</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="5" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
       </c>
       <c r="C9" s="3" t="n">
         <v>569</v>
@@ -1192,19 +997,19 @@
       <c r="D9" s="4" t="n">
         <v>12.8</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="4" t="n">
         <v>87.2</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="5" t="n">
         <v>5.44</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>567</v>
@@ -1212,19 +1017,19 @@
       <c r="D10" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="4" t="n">
         <v>97.9</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="5" t="n">
         <v>6.93</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="n">
         <v>424</v>
@@ -1232,19 +1037,19 @@
       <c r="D11" s="4" t="n">
         <v>20.9</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="4" t="n">
         <v>79.1</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="5" t="n">
         <v>5.47</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="n">
         <v>912</v>
@@ -1252,19 +1057,19 @@
       <c r="D12" s="4" t="n">
         <v>24.4</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="4" t="n">
         <v>75.6</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="5" t="n">
         <v>5.23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>232</v>
@@ -1272,19 +1077,19 @@
       <c r="D13" s="4" t="n">
         <v>20.2</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="4" t="n">
         <v>79.8</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="5" t="n">
         <v>5.29</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="C14" s="3" t="n">
         <v>1025</v>
@@ -1292,19 +1097,19 @@
       <c r="D14" s="4" t="n">
         <v>24</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="5" t="n">
         <v>5.78</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="3" t="n">
         <v>490</v>
@@ -1312,19 +1117,19 @@
       <c r="D15" s="4" t="n">
         <v>30.5</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="4" t="n">
         <v>69.5</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="5" t="n">
         <v>5.7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>309</v>
@@ -1332,19 +1137,19 @@
       <c r="D16" s="4" t="n">
         <v>18</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="5" t="n">
         <v>5.07</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>30</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="3" t="n">
         <v>801</v>
@@ -1352,19 +1157,19 @@
       <c r="D17" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="5" t="n">
         <v>6.21</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>32</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="n">
         <v>868</v>
@@ -1372,19 +1177,19 @@
       <c r="D18" s="4" t="n">
         <v>32</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="4" t="n">
         <v>68</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="5" t="n">
         <v>5.94</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>34</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>433</v>
@@ -1392,19 +1197,19 @@
       <c r="D19" s="4" t="n">
         <v>23.5</v>
       </c>
-      <c r="E19" s="5" t="n">
+      <c r="E19" s="4" t="n">
         <v>76.5</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="5" t="n">
         <v>5.38</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>37</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>469</v>
@@ -1412,19 +1217,19 @@
       <c r="D20" s="4" t="n">
         <v>21.1</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="4" t="n">
         <v>78.9</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="5" t="n">
         <v>5.45</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>38</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="C21" s="3" t="n">
         <v>463</v>
@@ -1432,19 +1237,19 @@
       <c r="D21" s="4" t="n">
         <v>23.1</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="4" t="n">
         <v>76.9</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="5" t="n">
         <v>5.88</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>40</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="C22" s="3" t="n">
         <v>701</v>
@@ -1452,19 +1257,19 @@
       <c r="D22" s="4" t="n">
         <v>32.3</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="4" t="n">
         <v>67.7</v>
       </c>
-      <c r="F22" s="6" t="n">
+      <c r="F22" s="5" t="n">
         <v>5.41</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>42</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>43</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>414</v>
@@ -1472,19 +1277,19 @@
       <c r="D23" s="4" t="n">
         <v>34.6</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="4" t="n">
         <v>65.4</v>
       </c>
-      <c r="F23" s="6" t="n">
+      <c r="F23" s="5" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>44</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>412</v>
@@ -1492,19 +1297,19 @@
       <c r="D24" s="4" t="n">
         <v>7.6</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="F24" s="6" t="n">
+      <c r="F24" s="5" t="n">
         <v>6.33</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>46</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>485</v>
@@ -1512,19 +1317,19 @@
       <c r="D25" s="4" t="n">
         <v>10.4</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="4" t="n">
         <v>89.6</v>
       </c>
-      <c r="F25" s="6" t="n">
+      <c r="F25" s="5" t="n">
         <v>5.89</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>48</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>707</v>
@@ -1532,19 +1337,19 @@
       <c r="D26" s="4" t="n">
         <v>8.3</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="4" t="n">
         <v>91.7</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="5" t="n">
         <v>6.03</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>50</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>393</v>
@@ -1552,19 +1357,19 @@
       <c r="D27" s="4" t="n">
         <v>42.4</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="4" t="n">
         <v>57.6</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="5" t="n">
         <v>5.28</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" t="s">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>52</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="n">
         <v>482</v>
@@ -1572,19 +1377,19 @@
       <c r="D28" s="4" t="n">
         <v>29.2</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="4" t="n">
         <v>70.8</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="5" t="n">
         <v>4.74</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>54</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="n">
         <v>349</v>
@@ -1592,19 +1397,19 @@
       <c r="D29" s="4" t="n">
         <v>41.1</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="4" t="n">
         <v>58.9</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="5" t="n">
         <v>5.49</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30" t="s">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>56</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="n">
         <v>667</v>
@@ -1612,19 +1417,19 @@
       <c r="D30" s="4" t="n">
         <v>7.8</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="4" t="n">
         <v>92.2</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="5" t="n">
         <v>5.86</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>58</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>59</v>
       </c>
       <c r="C31" s="3" t="n">
         <v>578</v>
@@ -1632,19 +1437,19 @@
       <c r="D31" s="4" t="n">
         <v>17.7</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="4" t="n">
         <v>82.3</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="5" t="n">
         <v>5.78</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" t="s">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>60</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>61</v>
       </c>
       <c r="C32" s="3" t="n">
         <v>708</v>
@@ -1652,19 +1457,19 @@
       <c r="D32" s="4" t="n">
         <v>28.3</v>
       </c>
-      <c r="E32" s="5" t="n">
+      <c r="E32" s="4" t="n">
         <v>71.7</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="5" t="n">
         <v>5.84</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>62</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>63</v>
       </c>
       <c r="C33" s="3" t="n">
         <v>766</v>
@@ -1672,19 +1477,19 @@
       <c r="D33" s="4" t="n">
         <v>23</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="F33" s="6" t="n">
+      <c r="F33" s="5" t="n">
         <v>5.38</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" t="s">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>64</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="3" t="n">
         <v>537</v>
@@ -1692,19 +1497,19 @@
       <c r="D34" s="4" t="n">
         <v>24.9</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="4" t="n">
         <v>75.1</v>
       </c>
-      <c r="F34" s="6" t="n">
+      <c r="F34" s="5" t="n">
         <v>5.71</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>66</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>569</v>
@@ -1712,19 +1517,19 @@
       <c r="D35" s="4" t="n">
         <v>13.4</v>
       </c>
-      <c r="E35" s="5" t="n">
+      <c r="E35" s="4" t="n">
         <v>86.6</v>
       </c>
-      <c r="F35" s="6" t="n">
+      <c r="F35" s="5" t="n">
         <v>5.05</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>68</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>69</v>
       </c>
       <c r="C36" s="3" t="n">
         <v>690</v>
@@ -1732,19 +1537,19 @@
       <c r="D36" s="4" t="n">
         <v>14.9</v>
       </c>
-      <c r="E36" s="5" t="n">
+      <c r="E36" s="4" t="n">
         <v>85.1</v>
       </c>
-      <c r="F36" s="6" t="n">
+      <c r="F36" s="5" t="n">
         <v>6.64</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" t="s">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>70</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>71</v>
       </c>
       <c r="C37" s="3" t="n">
         <v>306</v>
@@ -1752,19 +1557,19 @@
       <c r="D37" s="4" t="n">
         <v>40.2</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="4" t="n">
         <v>59.8</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="5" t="n">
         <v>5.3</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>72</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>73</v>
       </c>
       <c r="C38" s="3" t="n">
         <v>669</v>
@@ -1772,19 +1577,19 @@
       <c r="D38" s="4" t="n">
         <v>20.4</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="4" t="n">
         <v>79.6</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="5" t="n">
         <v>6.38</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>74</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="C39" s="3" t="n">
         <v>588</v>
@@ -1792,19 +1597,19 @@
       <c r="D39" s="4" t="n">
         <v>11.3</v>
       </c>
-      <c r="E39" s="5" t="n">
+      <c r="E39" s="4" t="n">
         <v>88.7</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="5" t="n">
         <v>6.11</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>76</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>77</v>
       </c>
       <c r="C40" s="3" t="n">
         <v>689</v>
@@ -1812,19 +1617,19 @@
       <c r="D40" s="4" t="n">
         <v>14.9</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="4" t="n">
         <v>85.1</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="5" t="n">
         <v>5.88</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" t="s">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>78</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="C41" s="3" t="n">
         <v>807</v>
@@ -1832,19 +1637,19 @@
       <c r="D41" s="4" t="n">
         <v>36.1</v>
       </c>
-      <c r="E41" s="5" t="n">
+      <c r="E41" s="4" t="n">
         <v>63.9</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="5" t="n">
         <v>5.49</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>81</v>
       </c>
       <c r="C42" s="3" t="n">
         <v>852</v>
@@ -1852,19 +1657,19 @@
       <c r="D42" s="4" t="n">
         <v>19.1</v>
       </c>
-      <c r="E42" s="5" t="n">
+      <c r="E42" s="4" t="n">
         <v>80.9</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="5" t="n">
         <v>5.54</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>82</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>83</v>
       </c>
       <c r="C43" s="3" t="n">
         <v>728</v>
@@ -1872,19 +1677,19 @@
       <c r="D43" s="4" t="n">
         <v>9.8</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="4" t="n">
         <v>90.2</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="5" t="n">
         <v>6.29</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>85</v>
       </c>
       <c r="C44" s="3" t="n">
         <v>552</v>
@@ -1892,19 +1697,19 @@
       <c r="D44" s="4" t="n">
         <v>13.6</v>
       </c>
-      <c r="E44" s="5" t="n">
+      <c r="E44" s="4" t="n">
         <v>86.4</v>
       </c>
-      <c r="F44" s="6" t="n">
+      <c r="F44" s="5" t="n">
         <v>5.02</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>86</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>87</v>
       </c>
       <c r="C45" s="3" t="n">
         <v>356</v>
@@ -1912,19 +1717,19 @@
       <c r="D45" s="4" t="n">
         <v>38.2</v>
       </c>
-      <c r="E45" s="5" t="n">
+      <c r="E45" s="4" t="n">
         <v>61.8</v>
       </c>
-      <c r="F45" s="6" t="n">
+      <c r="F45" s="5" t="n">
         <v>4.87</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>88</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>660</v>
@@ -1932,19 +1737,19 @@
       <c r="D46" s="4" t="n">
         <v>30.7</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="4" t="n">
         <v>69.3</v>
       </c>
-      <c r="F46" s="6" t="n">
+      <c r="F46" s="5" t="n">
         <v>5.15</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>90</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>91</v>
       </c>
       <c r="C47" s="3" t="n">
         <v>779</v>
@@ -1952,19 +1757,19 @@
       <c r="D47" s="4" t="n">
         <v>7.8</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="4" t="n">
         <v>92.2</v>
       </c>
-      <c r="F47" s="6" t="n">
+      <c r="F47" s="5" t="n">
         <v>5.43</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>93</v>
       </c>
       <c r="C48" s="3" t="n">
         <v>361</v>
@@ -1972,19 +1777,19 @@
       <c r="D48" s="4" t="n">
         <v>19.4</v>
       </c>
-      <c r="E48" s="5" t="n">
+      <c r="E48" s="4" t="n">
         <v>80.6</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="5" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>93</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>94</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>95</v>
       </c>
       <c r="C49" s="3" t="n">
         <v>650</v>
@@ -1992,19 +1797,19 @@
       <c r="D49" s="4" t="n">
         <v>15.8</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="4" t="n">
         <v>84.2</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="5" t="n">
         <v>6.19</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>96</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>97</v>
       </c>
       <c r="C50" s="3" t="n">
         <v>752</v>
@@ -2012,19 +1817,19 @@
       <c r="D50" s="4" t="n">
         <v>24.9</v>
       </c>
-      <c r="E50" s="5" t="n">
+      <c r="E50" s="4" t="n">
         <v>75.1</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>97</v>
-      </c>
-      <c r="B51" t="s">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>98</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>99</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>306</v>
@@ -2032,19 +1837,19 @@
       <c r="D51" s="4" t="n">
         <v>32.9</v>
       </c>
-      <c r="E51" s="5" t="n">
+      <c r="E51" s="4" t="n">
         <v>67.1</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="5" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>100</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>350</v>
@@ -2052,19 +1857,19 @@
       <c r="D52" s="4" t="n">
         <v>30.5</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="4" t="n">
         <v>69.5</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="5" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>102</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>103</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>395</v>
@@ -2072,19 +1877,19 @@
       <c r="D53" s="4" t="n">
         <v>16</v>
       </c>
-      <c r="E53" s="5" t="n">
+      <c r="E53" s="4" t="n">
         <v>84</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="5" t="n">
         <v>5.5</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>104</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="C54" s="3" t="n">
         <v>798</v>
@@ -2092,19 +1897,19 @@
       <c r="D54" s="4" t="n">
         <v>32.4</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54" s="4" t="n">
         <v>67.6</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="5" t="n">
         <v>5.65</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>106</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>107</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>773</v>
@@ -2112,19 +1917,19 @@
       <c r="D55" s="4" t="n">
         <v>40.3</v>
       </c>
-      <c r="E55" s="5" t="n">
+      <c r="E55" s="4" t="n">
         <v>59.7</v>
       </c>
-      <c r="F55" s="6" t="n">
+      <c r="F55" s="5" t="n">
         <v>4.92</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" t="s">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>108</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>109</v>
       </c>
       <c r="C56" s="3" t="n">
         <v>1294</v>
@@ -2132,19 +1937,19 @@
       <c r="D56" s="4" t="n">
         <v>17.8</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="4" t="n">
         <v>82.2</v>
       </c>
-      <c r="F56" s="6" t="n">
+      <c r="F56" s="5" t="n">
         <v>5.69</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>110</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>935</v>
@@ -2152,19 +1957,19 @@
       <c r="D57" s="4" t="n">
         <v>18.9</v>
       </c>
-      <c r="E57" s="5" t="n">
+      <c r="E57" s="4" t="n">
         <v>81.1</v>
       </c>
-      <c r="F57" s="6" t="n">
+      <c r="F57" s="5" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>112</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>113</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>534</v>
@@ -2172,19 +1977,19 @@
       <c r="D58" s="4" t="n">
         <v>31.3</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="4" t="n">
         <v>68.7</v>
       </c>
-      <c r="F58" s="6" t="n">
+      <c r="F58" s="5" t="n">
         <v>5.29</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>114</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>737</v>
@@ -2192,19 +1997,19 @@
       <c r="D59" s="4" t="n">
         <v>11</v>
       </c>
-      <c r="E59" s="5" t="n">
+      <c r="E59" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="5" t="n">
         <v>5.8</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="s">
-        <v>115</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>116</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>117</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>544</v>
@@ -2212,19 +2017,19 @@
       <c r="D60" s="4" t="n">
         <v>26.2</v>
       </c>
-      <c r="E60" s="5" t="n">
+      <c r="E60" s="4" t="n">
         <v>73.8</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="5" t="n">
         <v>5.15</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="s">
-        <v>117</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>118</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>119</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>499</v>
@@ -2232,19 +2037,19 @@
       <c r="D61" s="4" t="n">
         <v>20.2</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="4" t="n">
         <v>79.8</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="5" t="n">
         <v>5.69</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="s">
-        <v>119</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>120</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>121</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>760</v>
@@ -2252,19 +2057,19 @@
       <c r="D62" s="4" t="n">
         <v>11.8</v>
       </c>
-      <c r="E62" s="5" t="n">
+      <c r="E62" s="4" t="n">
         <v>88.2</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F62" s="5" t="n">
         <v>5.79</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>122</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="C63" s="3" t="n">
         <v>651</v>
@@ -2272,19 +2077,19 @@
       <c r="D63" s="4" t="n">
         <v>15.8</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="4" t="n">
         <v>84.2</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="5" t="n">
         <v>5.35</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>124</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>125</v>
       </c>
       <c r="C64" s="3" t="n">
         <v>1072</v>
@@ -2292,19 +2097,19 @@
       <c r="D64" s="4" t="n">
         <v>34.8</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="4" t="n">
         <v>65.2</v>
       </c>
-      <c r="F64" s="6" t="n">
+      <c r="F64" s="5" t="n">
         <v>5.98</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>126</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>127</v>
       </c>
       <c r="C65" s="3" t="n">
         <v>828</v>
@@ -2312,19 +2117,19 @@
       <c r="D65" s="4" t="n">
         <v>16.4</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65" s="4" t="n">
         <v>83.6</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="5" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>128</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>129</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>777</v>
@@ -2332,19 +2137,19 @@
       <c r="D66" s="4" t="n">
         <v>31.8</v>
       </c>
-      <c r="E66" s="5" t="n">
+      <c r="E66" s="4" t="n">
         <v>68.2</v>
       </c>
-      <c r="F66" s="6" t="n">
+      <c r="F66" s="5" t="n">
         <v>5.11</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="s">
-        <v>129</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>130</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>131</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>1112</v>
@@ -2352,19 +2157,19 @@
       <c r="D67" s="4" t="n">
         <v>56.2</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="4" t="n">
         <v>43.8</v>
       </c>
-      <c r="F67" s="6" t="n">
+      <c r="F67" s="5" t="n">
         <v>5.98</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" t="s">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>132</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>133</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>677</v>
@@ -2372,19 +2177,19 @@
       <c r="D68" s="4" t="n">
         <v>15.6</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="4" t="n">
         <v>84.4</v>
       </c>
-      <c r="F68" s="6" t="n">
+      <c r="F68" s="5" t="n">
         <v>5.74</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="s">
-        <v>133</v>
-      </c>
-      <c r="B69" t="s">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>134</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>135</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>552</v>
@@ -2392,19 +2197,19 @@
       <c r="D69" s="4" t="n">
         <v>7.6</v>
       </c>
-      <c r="E69" s="5" t="n">
+      <c r="E69" s="4" t="n">
         <v>92.4</v>
       </c>
-      <c r="F69" s="6" t="n">
+      <c r="F69" s="5" t="n">
         <v>6.04</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>136</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="n">
         <v>548</v>
@@ -2412,19 +2217,19 @@
       <c r="D70" s="4" t="n">
         <v>18.2</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="4" t="n">
         <v>81.8</v>
       </c>
-      <c r="F70" s="6" t="n">
+      <c r="F70" s="5" t="n">
         <v>5.65</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B71" t="s">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>138</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>139</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>534</v>
@@ -2432,19 +2237,19 @@
       <c r="D71" s="4" t="n">
         <v>20.2</v>
       </c>
-      <c r="E71" s="5" t="n">
+      <c r="E71" s="4" t="n">
         <v>79.8</v>
       </c>
-      <c r="F71" s="6" t="n">
+      <c r="F71" s="5" t="n">
         <v>5.76</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>139</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>140</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="3" t="n">
         <v>617</v>
@@ -2452,19 +2257,19 @@
       <c r="D72" s="4" t="n">
         <v>4.2</v>
       </c>
-      <c r="E72" s="5" t="n">
+      <c r="E72" s="4" t="n">
         <v>95.8</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F72" s="5" t="n">
         <v>6.24</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="s">
-        <v>141</v>
-      </c>
-      <c r="B73" t="s">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>142</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>143</v>
       </c>
       <c r="C73" s="3" t="n">
         <v>657</v>
@@ -2472,19 +2277,19 @@
       <c r="D73" s="4" t="n">
         <v>6.5</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="F73" s="6" t="n">
+      <c r="F73" s="5" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" t="s">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>144</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>145</v>
       </c>
       <c r="C74" s="3" t="n">
         <v>952</v>
@@ -2492,19 +2297,19 @@
       <c r="D74" s="4" t="n">
         <v>3.5</v>
       </c>
-      <c r="E74" s="5" t="n">
+      <c r="E74" s="4" t="n">
         <v>96.5</v>
       </c>
-      <c r="F74" s="6" t="n">
+      <c r="F74" s="5" t="n">
         <v>6.51</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" t="s">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>146</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>147</v>
       </c>
       <c r="C75" s="3" t="n">
         <v>490</v>
@@ -2512,19 +2317,19 @@
       <c r="D75" s="4" t="n">
         <v>24.6</v>
       </c>
-      <c r="E75" s="5" t="n">
+      <c r="E75" s="4" t="n">
         <v>75.4</v>
       </c>
-      <c r="F75" s="6" t="n">
+      <c r="F75" s="5" t="n">
         <v>5.08</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" t="s">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>148</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>149</v>
       </c>
       <c r="C76" s="3" t="n">
         <v>775</v>
@@ -2532,19 +2337,19 @@
       <c r="D76" s="4" t="n">
         <v>19.8</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="4" t="n">
         <v>80.2</v>
       </c>
-      <c r="F76" s="6" t="n">
+      <c r="F76" s="5" t="n">
         <v>5.6</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>150</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>151</v>
       </c>
       <c r="C77" s="3" t="n">
         <v>695</v>
@@ -2552,19 +2357,19 @@
       <c r="D77" s="4" t="n">
         <v>25.1</v>
       </c>
-      <c r="E77" s="5" t="n">
+      <c r="E77" s="4" t="n">
         <v>74.9</v>
       </c>
-      <c r="F77" s="6" t="n">
+      <c r="F77" s="5" t="n">
         <v>5.42</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>151</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>152</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>153</v>
       </c>
       <c r="C78" s="3" t="n">
         <v>790</v>
@@ -2572,19 +2377,19 @@
       <c r="D78" s="4" t="n">
         <v>5.6</v>
       </c>
-      <c r="E78" s="5" t="n">
+      <c r="E78" s="4" t="n">
         <v>94.4</v>
       </c>
-      <c r="F78" s="6" t="n">
+      <c r="F78" s="5" t="n">
         <v>6.27</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>154</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>155</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>623</v>
@@ -2592,19 +2397,19 @@
       <c r="D79" s="4" t="n">
         <v>2.1</v>
       </c>
-      <c r="E79" s="5" t="n">
+      <c r="E79" s="4" t="n">
         <v>97.9</v>
       </c>
-      <c r="F79" s="6" t="n">
+      <c r="F79" s="5" t="n">
         <v>6.65</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>156</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>157</v>
       </c>
       <c r="C80" s="3" t="n">
         <v>1157</v>
@@ -2612,19 +2417,19 @@
       <c r="D80" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="E80" s="5" t="n">
+      <c r="E80" s="4" t="n">
         <v>99.9</v>
       </c>
-      <c r="F80" s="6" t="n">
+      <c r="F80" s="5" t="n">
         <v>8.6</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>158</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>159</v>
       </c>
       <c r="C81" s="3" t="n">
         <v>1186</v>
@@ -2632,19 +2437,19 @@
       <c r="D81" s="4" t="n">
         <v>14.3</v>
       </c>
-      <c r="E81" s="5" t="n">
+      <c r="E81" s="4" t="n">
         <v>85.7</v>
       </c>
-      <c r="F81" s="6" t="n">
+      <c r="F81" s="5" t="n">
         <v>5.72</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>160</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>161</v>
       </c>
       <c r="C82" s="3" t="n">
         <v>771</v>
@@ -2652,19 +2457,19 @@
       <c r="D82" s="4" t="n">
         <v>8.1</v>
       </c>
-      <c r="E82" s="5" t="n">
+      <c r="E82" s="4" t="n">
         <v>91.9</v>
       </c>
-      <c r="F82" s="6" t="n">
+      <c r="F82" s="5" t="n">
         <v>6.79</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>161</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>162</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>163</v>
       </c>
       <c r="C83" s="3" t="n">
         <v>916</v>
@@ -2672,19 +2477,19 @@
       <c r="D83" s="4" t="n">
         <v>5.1</v>
       </c>
-      <c r="E83" s="5" t="n">
+      <c r="E83" s="4" t="n">
         <v>94.9</v>
       </c>
-      <c r="F83" s="6" t="n">
+      <c r="F83" s="5" t="n">
         <v>7.09</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>163</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>164</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>165</v>
       </c>
       <c r="C84" s="3" t="n">
         <v>415</v>
@@ -2692,19 +2497,19 @@
       <c r="D84" s="4" t="n">
         <v>49.9</v>
       </c>
-      <c r="E84" s="5" t="n">
+      <c r="E84" s="4" t="n">
         <v>50.1</v>
       </c>
-      <c r="F84" s="6" t="n">
+      <c r="F84" s="5" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>165</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>166</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>167</v>
       </c>
       <c r="C85" s="3" t="n">
         <v>752</v>
@@ -2712,19 +2517,19 @@
       <c r="D85" s="4" t="n">
         <v>25.7</v>
       </c>
-      <c r="E85" s="5" t="n">
+      <c r="E85" s="4" t="n">
         <v>74.3</v>
       </c>
-      <c r="F85" s="6" t="n">
+      <c r="F85" s="5" t="n">
         <v>5.9</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>167</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>168</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>169</v>
       </c>
       <c r="C86" s="3" t="n">
         <v>398</v>
@@ -2732,19 +2537,19 @@
       <c r="D86" s="4" t="n">
         <v>18.6</v>
       </c>
-      <c r="E86" s="5" t="n">
+      <c r="E86" s="4" t="n">
         <v>81.4</v>
       </c>
-      <c r="F86" s="6" t="n">
+      <c r="F86" s="5" t="n">
         <v>5.2</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>169</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>170</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>171</v>
       </c>
       <c r="C87" s="3" t="n">
         <v>346</v>
@@ -2752,19 +2557,19 @@
       <c r="D87" s="4" t="n">
         <v>38.6</v>
       </c>
-      <c r="E87" s="5" t="n">
+      <c r="E87" s="4" t="n">
         <v>61.4</v>
       </c>
-      <c r="F87" s="6" t="n">
+      <c r="F87" s="5" t="n">
         <v>5.76</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>172</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>173</v>
       </c>
       <c r="C88" s="3" t="n">
         <v>512</v>
@@ -2772,19 +2577,19 @@
       <c r="D88" s="4" t="n">
         <v>6.1</v>
       </c>
-      <c r="E88" s="5" t="n">
+      <c r="E88" s="4" t="n">
         <v>93.9</v>
       </c>
-      <c r="F88" s="6" t="n">
+      <c r="F88" s="5" t="n">
         <v>6.1</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>173</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>174</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>175</v>
       </c>
       <c r="C89" s="3" t="n">
         <v>649</v>
@@ -2792,19 +2597,19 @@
       <c r="D89" s="4" t="n">
         <v>16.2</v>
       </c>
-      <c r="E89" s="5" t="n">
+      <c r="E89" s="4" t="n">
         <v>83.8</v>
       </c>
-      <c r="F89" s="6" t="n">
+      <c r="F89" s="5" t="n">
         <v>6.04</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>175</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>176</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>177</v>
       </c>
       <c r="C90" s="3" t="n">
         <v>356</v>
@@ -2812,19 +2617,19 @@
       <c r="D90" s="4" t="n">
         <v>47.2</v>
       </c>
-      <c r="E90" s="5" t="n">
+      <c r="E90" s="4" t="n">
         <v>52.8</v>
       </c>
-      <c r="F90" s="6" t="n">
+      <c r="F90" s="5" t="n">
         <v>5.49</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>177</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>178</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="C91" s="3" t="n">
         <v>603</v>
@@ -2832,19 +2637,19 @@
       <c r="D91" s="4" t="n">
         <v>29.7</v>
       </c>
-      <c r="E91" s="5" t="n">
+      <c r="E91" s="4" t="n">
         <v>70.3</v>
       </c>
-      <c r="F91" s="6" t="n">
+      <c r="F91" s="5" t="n">
         <v>5.61</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>179</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>180</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>181</v>
       </c>
       <c r="C92" s="3" t="n">
         <v>717</v>
@@ -2852,19 +2657,19 @@
       <c r="D92" s="4" t="n">
         <v>14.4</v>
       </c>
-      <c r="E92" s="5" t="n">
+      <c r="E92" s="4" t="n">
         <v>85.6</v>
       </c>
-      <c r="F92" s="6" t="n">
+      <c r="F92" s="5" t="n">
         <v>5.43</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>181</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
         <v>182</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>183</v>
       </c>
       <c r="C93" s="3" t="n">
         <v>677</v>
@@ -2872,19 +2677,19 @@
       <c r="D93" s="4" t="n">
         <v>14.3</v>
       </c>
-      <c r="E93" s="5" t="n">
+      <c r="E93" s="4" t="n">
         <v>85.7</v>
       </c>
-      <c r="F93" s="6" t="n">
+      <c r="F93" s="5" t="n">
         <v>4.96</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>183</v>
-      </c>
-      <c r="B94" t="s">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>184</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>185</v>
       </c>
       <c r="C94" s="3" t="n">
         <v>636</v>
@@ -2892,19 +2697,19 @@
       <c r="D94" s="4" t="n">
         <v>19.8</v>
       </c>
-      <c r="E94" s="5" t="n">
+      <c r="E94" s="4" t="n">
         <v>80.2</v>
       </c>
-      <c r="F94" s="6" t="n">
+      <c r="F94" s="5" t="n">
         <v>5.49</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>185</v>
-      </c>
-      <c r="B95" t="s">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>186</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>187</v>
       </c>
       <c r="C95" s="3" t="n">
         <v>1016</v>
@@ -2912,19 +2717,19 @@
       <c r="D95" s="4" t="n">
         <v>8.4</v>
       </c>
-      <c r="E95" s="5" t="n">
+      <c r="E95" s="4" t="n">
         <v>91.6</v>
       </c>
-      <c r="F95" s="6" t="n">
+      <c r="F95" s="5" t="n">
         <v>5.34</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" t="s">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>188</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>189</v>
       </c>
       <c r="C96" s="3" t="n">
         <v>1000</v>
@@ -2932,19 +2737,19 @@
       <c r="D96" s="4" t="n">
         <v>4.6</v>
       </c>
-      <c r="E96" s="5" t="n">
+      <c r="E96" s="4" t="n">
         <v>95.4</v>
       </c>
-      <c r="F96" s="6" t="n">
+      <c r="F96" s="5" t="n">
         <v>6.93</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>189</v>
-      </c>
-      <c r="B97" t="s">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>190</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>191</v>
       </c>
       <c r="C97" s="3" t="n">
         <v>1263</v>
@@ -2952,19 +2757,19 @@
       <c r="D97" s="4" t="n">
         <v>0.9</v>
       </c>
-      <c r="E97" s="5" t="n">
+      <c r="E97" s="4" t="n">
         <v>99.1</v>
       </c>
-      <c r="F97" s="6" t="n">
+      <c r="F97" s="5" t="n">
         <v>7.55</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>191</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>192</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>193</v>
       </c>
       <c r="C98" s="3" t="n">
         <v>1414</v>
@@ -2972,19 +2777,19 @@
       <c r="D98" s="4" t="n">
         <v>1.8</v>
       </c>
-      <c r="E98" s="5" t="n">
+      <c r="E98" s="4" t="n">
         <v>98.2</v>
       </c>
-      <c r="F98" s="6" t="n">
+      <c r="F98" s="5" t="n">
         <v>7.1</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>193</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>194</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>195</v>
       </c>
       <c r="C99" s="3" t="n">
         <v>1281</v>
@@ -2992,19 +2797,19 @@
       <c r="D99" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="E99" s="5" t="n">
+      <c r="E99" s="4" t="n">
         <v>98.5</v>
       </c>
-      <c r="F99" s="6" t="n">
+      <c r="F99" s="5" t="n">
         <v>7.27</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" t="s">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>196</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>197</v>
       </c>
       <c r="C100" s="3" t="n">
         <v>1029</v>
@@ -3012,19 +2817,19 @@
       <c r="D100" s="4" t="n">
         <v>6.5</v>
       </c>
-      <c r="E100" s="5" t="n">
+      <c r="E100" s="4" t="n">
         <v>93.5</v>
       </c>
-      <c r="F100" s="6" t="n">
+      <c r="F100" s="5" t="n">
         <v>6.96</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B101" s="11" t="s">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
         <v>198</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="C101" s="7" t="n">
         <v>700</v>
@@ -3032,19 +2837,19 @@
       <c r="D101" s="8" t="n">
         <v>19.8</v>
       </c>
-      <c r="E101" s="9" t="n">
+      <c r="E101" s="8" t="n">
         <v>80.2</v>
       </c>
-      <c r="F101" s="10" t="n">
+      <c r="F101" s="9" t="n">
         <v>5.89</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B102" s="11" t="s">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
         <v>200</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="C102" s="7" t="n">
         <v>781</v>
@@ -3052,19 +2857,19 @@
       <c r="D102" s="8" t="n">
         <v>15.3</v>
       </c>
-      <c r="E102" s="9" t="n">
+      <c r="E102" s="8" t="n">
         <v>84.7</v>
       </c>
-      <c r="F102" s="10" t="n">
+      <c r="F102" s="9" t="n">
         <v>6.27</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>201</v>
-      </c>
-      <c r="B103" t="s">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>202</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>203</v>
       </c>
       <c r="C103" s="3" t="n">
         <v>998</v>
@@ -3072,19 +2877,19 @@
       <c r="D103" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="E103" s="5" t="n">
+      <c r="E103" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="F103" s="6" t="n">
+      <c r="F103" s="5" t="n">
         <v>6.42</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>203</v>
-      </c>
-      <c r="B104" t="s">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>204</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>205</v>
       </c>
       <c r="C104" s="3" t="n">
         <v>1005</v>
@@ -3092,19 +2897,19 @@
       <c r="D104" s="4" t="n">
         <v>0.4</v>
       </c>
-      <c r="E104" s="5" t="n">
+      <c r="E104" s="4" t="n">
         <v>99.6</v>
       </c>
-      <c r="F104" s="6" t="n">
+      <c r="F104" s="5" t="n">
         <v>5.87</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>205</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>206</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>207</v>
       </c>
       <c r="C105" s="3" t="n">
         <v>699</v>
@@ -3112,19 +2917,19 @@
       <c r="D105" s="4" t="n">
         <v>25.4</v>
       </c>
-      <c r="E105" s="5" t="n">
+      <c r="E105" s="4" t="n">
         <v>74.6</v>
       </c>
-      <c r="F105" s="6" t="n">
+      <c r="F105" s="5" t="n">
         <v>6.59</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>207</v>
-      </c>
-      <c r="B106" t="s">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>208</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>209</v>
       </c>
       <c r="C106" s="3" t="n">
         <v>967</v>
@@ -3132,19 +2937,19 @@
       <c r="D106" s="4" t="n">
         <v>12.8</v>
       </c>
-      <c r="E106" s="5" t="n">
+      <c r="E106" s="4" t="n">
         <v>87.2</v>
       </c>
-      <c r="F106" s="6" t="n">
+      <c r="F106" s="5" t="n">
         <v>6.4</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>209</v>
-      </c>
-      <c r="B107" t="s">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>210</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>211</v>
       </c>
       <c r="C107" s="3" t="n">
         <v>86</v>
@@ -3152,516 +2957,512 @@
       <c r="D107" s="4" t="n">
         <v>35.4</v>
       </c>
-      <c r="E107" s="5" t="n">
+      <c r="E107" s="4" t="n">
         <v>64.6</v>
       </c>
-      <c r="F107" s="6" t="n">
+      <c r="F107" s="5" t="n">
         <v>8.54</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B108" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="7" t="n">
-        <v>782</v>
-      </c>
-      <c r="D108" s="8" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E108" s="9" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="F108" s="10" t="n">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="12" t="s">
-        <v>214</v>
-      </c>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="6"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="10"/>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="23.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="22.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="22.7"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>731</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>683</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>86.1</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C7" s="3" t="n">
+        <v>552</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="13" t="n">
-        <v>731</v>
-      </c>
-      <c r="D5" s="14" t="n">
+      <c r="C8" s="3" t="n">
+        <v>765</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>74.5</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>451</v>
+      </c>
+      <c r="D9" s="4" t="n">
         <v>9.2</v>
       </c>
-      <c r="E5" s="15" t="n">
+      <c r="E9" s="4" t="n">
         <v>90.8</v>
       </c>
-      <c r="F5" s="16" t="n">
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>683</v>
-      </c>
-      <c r="D6" s="14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E6" s="15" t="n">
-        <v>86.1</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>5.61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="F9" s="5" t="n">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="13" t="n">
-        <v>552</v>
-      </c>
-      <c r="D7" s="14" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="E7" s="15" t="n">
-        <v>77.9</v>
-      </c>
-      <c r="F7" s="16" t="n">
-        <v>5.72</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C10" s="3" t="n">
+        <v>782</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="13" t="n">
-        <v>765</v>
-      </c>
-      <c r="D8" s="14" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="E8" s="15" t="n">
-        <v>74.5</v>
-      </c>
-      <c r="F8" s="16" t="n">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C11" s="3" t="n">
+        <v>993</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>5.94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="13" t="n">
-        <v>451</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="E9" s="15" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="F9" s="16" t="n">
-        <v>6.08</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C12" s="3" t="n">
+        <v>1117</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>97.1</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C13" s="3" t="n">
+        <v>938</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E13" s="4" t="n">
+        <v>76</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.64</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>530</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E14" s="4" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>534</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="E15" s="4" t="n">
+        <v>82.9</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>625</v>
+      </c>
+      <c r="D16" s="4" t="n">
+        <v>26.1</v>
+      </c>
+      <c r="E16" s="4" t="n">
+        <v>73.9</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>655</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E17" s="4" t="n">
+        <v>92.9</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>700</v>
+      </c>
+      <c r="D18" s="8" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>781</v>
+      </c>
+      <c r="D19" s="8" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>998</v>
+      </c>
+      <c r="D20" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>78</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>1005</v>
+      </c>
+      <c r="D21" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E21" s="4" t="n">
+        <v>99.6</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>5.87</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>699</v>
+      </c>
+      <c r="D22" s="4" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="E22" s="4" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>6.59</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>967</v>
+      </c>
+      <c r="D23" s="4" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="E23" s="4" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="E24" s="4" t="n">
+        <v>64.6</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>8.54</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="7" t="n">
         <v>782</v>
       </c>
-      <c r="D10" s="14" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="E10" s="15" t="n">
-        <v>86.8</v>
-      </c>
-      <c r="F10" s="16" t="n">
-        <v>5.75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>993</v>
-      </c>
-      <c r="D11" s="14" t="n">
-        <v>37.1</v>
-      </c>
-      <c r="E11" s="15" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="F11" s="16" t="n">
-        <v>5.94</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>1117</v>
-      </c>
-      <c r="D12" s="14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="E12" s="15" t="n">
-        <v>97.1</v>
-      </c>
-      <c r="F12" s="16" t="n">
-        <v>7.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>224</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>938</v>
-      </c>
-      <c r="D13" s="14" t="n">
-        <v>24</v>
-      </c>
-      <c r="E13" s="15" t="n">
-        <v>76</v>
-      </c>
-      <c r="F13" s="16" t="n">
-        <v>5.64</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14" t="s">
-        <v>225</v>
-      </c>
-      <c r="C14" s="13" t="n">
-        <v>530</v>
-      </c>
-      <c r="D14" s="14" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="E14" s="15" t="n">
-        <v>76.5</v>
-      </c>
-      <c r="F14" s="16" t="n">
-        <v>5.85</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" t="s">
-        <v>226</v>
-      </c>
-      <c r="C15" s="13" t="n">
-        <v>534</v>
-      </c>
-      <c r="D15" s="14" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="E15" s="15" t="n">
-        <v>82.9</v>
-      </c>
-      <c r="F15" s="16" t="n">
-        <v>5.93</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="13" t="n">
-        <v>625</v>
-      </c>
-      <c r="D16" s="14" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E16" s="15" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="F16" s="16" t="n">
-        <v>5.77</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>191</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D25" s="8" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="13" t="n">
-        <v>655</v>
-      </c>
-      <c r="D17" s="14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E17" s="15" t="n">
-        <v>92.9</v>
-      </c>
-      <c r="F17" s="16" t="n">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="17" t="n">
-        <v>700</v>
-      </c>
-      <c r="D18" s="18" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="E18" s="19" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="F18" s="20" t="n">
-        <v>5.89</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" s="17" t="n">
-        <v>781</v>
-      </c>
-      <c r="D19" s="18" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="E19" s="19" t="n">
-        <v>84.7</v>
-      </c>
-      <c r="F19" s="20" t="n">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="13" t="n">
-        <v>998</v>
-      </c>
-      <c r="D20" s="14" t="n">
-        <v>22</v>
-      </c>
-      <c r="E20" s="15" t="n">
-        <v>78</v>
-      </c>
-      <c r="F20" s="16" t="n">
-        <v>6.42</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" s="13" t="n">
-        <v>1005</v>
-      </c>
-      <c r="D21" s="14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="E21" s="15" t="n">
-        <v>99.6</v>
-      </c>
-      <c r="F21" s="16" t="n">
-        <v>5.87</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>206</v>
-      </c>
-      <c r="C22" s="13" t="n">
-        <v>699</v>
-      </c>
-      <c r="D22" s="14" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="E22" s="15" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="F22" s="16" t="n">
-        <v>6.59</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>208</v>
-      </c>
-      <c r="C23" s="13" t="n">
-        <v>967</v>
-      </c>
-      <c r="D23" s="14" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="E23" s="15" t="n">
-        <v>87.2</v>
-      </c>
-      <c r="F23" s="16" t="n">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>210</v>
-      </c>
-      <c r="C24" s="13" t="n">
-        <v>86</v>
-      </c>
-      <c r="D24" s="14" t="n">
-        <v>35.4</v>
-      </c>
-      <c r="E24" s="15" t="n">
-        <v>64.6</v>
-      </c>
-      <c r="F24" s="16" t="n">
-        <v>8.54</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" s="17" t="n">
-        <v>782</v>
-      </c>
-      <c r="D25" s="18" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="E25" s="19" t="n">
-        <v>84.8</v>
-      </c>
-      <c r="F25" s="20" t="n">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="s">
-        <v>214</v>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>